--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H2">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I2">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J2">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N2">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O2">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P2">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q2">
-        <v>9.884139568388449</v>
+        <v>11.70771399840633</v>
       </c>
       <c r="R2">
-        <v>88.95725611549602</v>
+        <v>105.369425985657</v>
       </c>
       <c r="S2">
-        <v>0.05044799603391693</v>
+        <v>0.04105936959681545</v>
       </c>
       <c r="T2">
-        <v>0.05044799603391695</v>
+        <v>0.04105936959681546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H3">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I3">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J3">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>36.958952</v>
       </c>
       <c r="O3">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P3">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q3">
-        <v>46.5476728509849</v>
+        <v>56.34756483404711</v>
       </c>
       <c r="R3">
-        <v>418.929055658864</v>
+        <v>507.1280835064239</v>
       </c>
       <c r="S3">
-        <v>0.2375762502266462</v>
+        <v>0.1976129149308388</v>
       </c>
       <c r="T3">
-        <v>0.2375762502266463</v>
+        <v>0.1976129149308389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H4">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I4">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J4">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N4">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O4">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P4">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q4">
-        <v>0.4405605237213333</v>
+        <v>0.7562511953078889</v>
       </c>
       <c r="R4">
-        <v>3.965044713492</v>
+        <v>6.806260757771001</v>
       </c>
       <c r="S4">
-        <v>0.002248591837419583</v>
+        <v>0.002652199852200592</v>
       </c>
       <c r="T4">
-        <v>0.002248591837419585</v>
+        <v>0.002652199852200593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H5">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I5">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J5">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N5">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O5">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P5">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q5">
-        <v>67.13471678033757</v>
+        <v>116.9036681112151</v>
       </c>
       <c r="R5">
-        <v>604.2124510230382</v>
+        <v>1052.133013000936</v>
       </c>
       <c r="S5">
-        <v>0.3426511637598017</v>
+        <v>0.4099853239372955</v>
       </c>
       <c r="T5">
-        <v>0.3426511637598019</v>
+        <v>0.4099853239372956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H6">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I6">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J6">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N6">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O6">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P6">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q6">
-        <v>0.2263583310975556</v>
+        <v>0.4562742327138888</v>
       </c>
       <c r="R6">
-        <v>2.037224979878001</v>
+        <v>4.106468094425</v>
       </c>
       <c r="S6">
-        <v>0.001155317982960797</v>
+        <v>0.001600169970077257</v>
       </c>
       <c r="T6">
-        <v>0.001155317982960797</v>
+        <v>0.001600169970077257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.171665</v>
       </c>
       <c r="I7">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J7">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N7">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O7">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P7">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q7">
-        <v>3.637704858513334</v>
+        <v>3.559455084035</v>
       </c>
       <c r="R7">
-        <v>32.73934372662001</v>
+        <v>32.03509575631499</v>
       </c>
       <c r="S7">
-        <v>0.01856660552039959</v>
+        <v>0.01248313563848167</v>
       </c>
       <c r="T7">
-        <v>0.0185666055203996</v>
+        <v>0.01248313563848167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.171665</v>
       </c>
       <c r="I8">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J8">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>36.958952</v>
       </c>
       <c r="O8">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P8">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q8">
         <v>17.13115183278667</v>
@@ -948,10 +948,10 @@
         <v>154.18036649508</v>
       </c>
       <c r="S8">
-        <v>0.08743626835064597</v>
+        <v>0.06007955906826021</v>
       </c>
       <c r="T8">
-        <v>0.08743626835064602</v>
+        <v>0.06007955906826021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>4.171665</v>
       </c>
       <c r="I9">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J9">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N9">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O9">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P9">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q9">
-        <v>0.16214149411</v>
+        <v>0.2299203894383333</v>
       </c>
       <c r="R9">
-        <v>1.45927344699</v>
+        <v>2.069283504945</v>
       </c>
       <c r="S9">
-        <v>0.0008275594850921656</v>
+        <v>0.0008063389871906086</v>
       </c>
       <c r="T9">
-        <v>0.000827559485092166</v>
+        <v>0.0008063389871906089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.171665</v>
       </c>
       <c r="I10">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J10">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N10">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O10">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P10">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q10">
-        <v>24.70789528183167</v>
+        <v>35.54181079734666</v>
       </c>
       <c r="R10">
-        <v>222.371057536485</v>
+        <v>319.87629717612</v>
       </c>
       <c r="S10">
-        <v>0.1261074668725573</v>
+        <v>0.1246463951773154</v>
       </c>
       <c r="T10">
-        <v>0.1261074668725573</v>
+        <v>0.1246463951773154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>4.171665</v>
       </c>
       <c r="I11">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J11">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N11">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O11">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P11">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q11">
-        <v>0.08330768653166667</v>
+        <v>0.1387194492083333</v>
       </c>
       <c r="R11">
-        <v>0.7497691787850002</v>
+        <v>1.248475042875</v>
       </c>
       <c r="S11">
-        <v>0.0004251969340037903</v>
+        <v>0.0004864940445322577</v>
       </c>
       <c r="T11">
-        <v>0.0004251969340037905</v>
+        <v>0.0004864940445322577</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H12">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I12">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J12">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N12">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O12">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P12">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q12">
-        <v>0.6579333233582223</v>
+        <v>0.9079992943423332</v>
       </c>
       <c r="R12">
-        <v>5.921399910224</v>
+        <v>8.171993649080999</v>
       </c>
       <c r="S12">
-        <v>0.003358048260822874</v>
+        <v>0.00318438583528128</v>
       </c>
       <c r="T12">
-        <v>0.003358048260822876</v>
+        <v>0.00318438583528128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H13">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I13">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J13">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>36.958952</v>
       </c>
       <c r="O13">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P13">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q13">
-        <v>3.098424995068444</v>
+        <v>4.370071656532444</v>
       </c>
       <c r="R13">
-        <v>27.88582495561599</v>
+        <v>39.330644908792</v>
       </c>
       <c r="S13">
-        <v>0.01581415668820703</v>
+        <v>0.0153259968030102</v>
       </c>
       <c r="T13">
-        <v>0.01581415668820704</v>
+        <v>0.0153259968030102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H14">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I14">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J14">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N14">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O14">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P14">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q14">
-        <v>0.02932571393866666</v>
+        <v>0.05865154818255556</v>
       </c>
       <c r="R14">
-        <v>0.263931425448</v>
+        <v>0.5278639336430001</v>
       </c>
       <c r="S14">
-        <v>0.0001496765085350621</v>
+        <v>0.0002056930665184326</v>
       </c>
       <c r="T14">
-        <v>0.0001496765085350621</v>
+        <v>0.0002056930665184326</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H15">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I15">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J15">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N15">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O15">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P15">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q15">
-        <v>4.468792353485778</v>
+        <v>9.066539220676443</v>
       </c>
       <c r="R15">
-        <v>40.219131181372</v>
+        <v>81.59885298608799</v>
       </c>
       <c r="S15">
-        <v>0.02280842124549298</v>
+        <v>0.03179667566840551</v>
       </c>
       <c r="T15">
-        <v>0.02280842124549298</v>
+        <v>0.03179667566840551</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H16">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I16">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J16">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N16">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O16">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P16">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q16">
-        <v>0.01506744092577778</v>
+        <v>0.03538664178055555</v>
       </c>
       <c r="R16">
-        <v>0.135606968332</v>
+        <v>0.3184797760249999</v>
       </c>
       <c r="S16">
-        <v>7.690322407991338E-05</v>
+        <v>0.000124102211913933</v>
       </c>
       <c r="T16">
-        <v>7.69032240799134E-05</v>
+        <v>0.000124102211913933</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H17">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I17">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J17">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N17">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O17">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P17">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q17">
-        <v>0.9295431084008892</v>
+        <v>1.227964712851</v>
       </c>
       <c r="R17">
-        <v>8.365887975608002</v>
+        <v>11.051682415659</v>
       </c>
       <c r="S17">
-        <v>0.004744326678261242</v>
+        <v>0.004306515943561631</v>
       </c>
       <c r="T17">
-        <v>0.004744326678261243</v>
+        <v>0.004306515943561631</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H18">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I18">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J18">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>36.958952</v>
       </c>
       <c r="O18">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P18">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q18">
-        <v>4.377525045185778</v>
+        <v>5.910019776765332</v>
       </c>
       <c r="R18">
-        <v>39.397725406672</v>
+        <v>53.19017799088799</v>
       </c>
       <c r="S18">
-        <v>0.02234259892729443</v>
+        <v>0.02072664965780066</v>
       </c>
       <c r="T18">
-        <v>0.02234259892729444</v>
+        <v>0.02072664965780066</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H19">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I19">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J19">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N19">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O19">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P19">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q19">
-        <v>0.04143203319066666</v>
+        <v>0.07931947961966666</v>
       </c>
       <c r="R19">
-        <v>0.372888298716</v>
+        <v>0.7138753165770001</v>
       </c>
       <c r="S19">
-        <v>0.0002114663630170345</v>
+        <v>0.0002781762375109509</v>
       </c>
       <c r="T19">
-        <v>0.0002114663630170346</v>
+        <v>0.0002781762375109509</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H20">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I20">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J20">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N20">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O20">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P20">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q20">
-        <v>6.313611102497112</v>
+        <v>12.26145251438133</v>
       </c>
       <c r="R20">
-        <v>56.82249992247401</v>
+        <v>110.353072629432</v>
       </c>
       <c r="S20">
-        <v>0.03222425438802249</v>
+        <v>0.04300135027643442</v>
       </c>
       <c r="T20">
-        <v>0.0322242543880225</v>
+        <v>0.04300135027643442</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H21">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I21">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J21">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N21">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O21">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P21">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q21">
-        <v>0.02128762197711111</v>
+        <v>0.04785636694166666</v>
       </c>
       <c r="R21">
-        <v>0.1915885977940001</v>
+        <v>0.4307073024749999</v>
       </c>
       <c r="S21">
-        <v>0.0001086506176528951</v>
+        <v>0.0001678339817735712</v>
       </c>
       <c r="T21">
-        <v>0.0001086506176528951</v>
+        <v>0.0001678339817735712</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H22">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I22">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J22">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N22">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O22">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P22">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q22">
-        <v>0.478854404444889</v>
+        <v>0.5284568504043333</v>
       </c>
       <c r="R22">
-        <v>4.309689640004001</v>
+        <v>4.756111653639</v>
       </c>
       <c r="S22">
-        <v>0.002444041277352998</v>
+        <v>0.001853316978846093</v>
       </c>
       <c r="T22">
-        <v>0.002444041277352999</v>
+        <v>0.001853316978846093</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H23">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I23">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J23">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>36.958952</v>
       </c>
       <c r="O23">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P23">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q23">
-        <v>2.255083308681778</v>
+        <v>2.543387773583111</v>
       </c>
       <c r="R23">
-        <v>20.295749778136</v>
+        <v>22.890489962248</v>
       </c>
       <c r="S23">
-        <v>0.01150979637887481</v>
+        <v>0.008919751425238579</v>
       </c>
       <c r="T23">
-        <v>0.01150979637887482</v>
+        <v>0.008919751425238579</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H24">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I24">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J24">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N24">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O24">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P24">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q24">
-        <v>0.02134372402866667</v>
+        <v>0.03413528250188889</v>
       </c>
       <c r="R24">
-        <v>0.192093516258</v>
+        <v>0.3072175425170001</v>
       </c>
       <c r="S24">
-        <v>0.0001089369588214699</v>
+        <v>0.0001197136503955894</v>
       </c>
       <c r="T24">
-        <v>0.0001089369588214699</v>
+        <v>0.0001197136503955894</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H25">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I25">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J25">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N25">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O25">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P25">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q25">
-        <v>3.252458607954112</v>
+        <v>5.276738418719111</v>
       </c>
       <c r="R25">
-        <v>29.272127471587</v>
+        <v>47.490645768472</v>
       </c>
       <c r="S25">
-        <v>0.0166003340826257</v>
+        <v>0.01850570940060506</v>
       </c>
       <c r="T25">
-        <v>0.0166003340826257</v>
+        <v>0.01850570940060507</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H26">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I26">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J26">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N26">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O26">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P26">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q26">
-        <v>0.01096632469411111</v>
+        <v>0.02059507466388889</v>
       </c>
       <c r="R26">
-        <v>0.09869692224700002</v>
+        <v>0.185355671975</v>
       </c>
       <c r="S26">
-        <v>5.597139749467981E-05</v>
+        <v>7.222765969631053E-05</v>
       </c>
       <c r="T26">
-        <v>5.597139749467983E-05</v>
+        <v>7.222765969631054E-05</v>
       </c>
     </row>
   </sheetData>
